--- a/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Fgf15-Fgfr2.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Fgf15-Fgfr2.xlsx
@@ -546,34 +546,34 @@
         <v>1</v>
       </c>
       <c r="K2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L2">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M2">
-        <v>0.09434000000000002</v>
+        <v>0.036942</v>
       </c>
       <c r="N2">
-        <v>0.28302</v>
+        <v>0.110826</v>
       </c>
       <c r="O2">
-        <v>0.05191071108246545</v>
+        <v>0.02099032928903418</v>
       </c>
       <c r="P2">
-        <v>0.05191071108246544</v>
+        <v>0.02099032928903418</v>
       </c>
       <c r="Q2">
-        <v>0.012636843</v>
+        <v>0.004948380899999999</v>
       </c>
       <c r="R2">
-        <v>0.113731587</v>
+        <v>0.0445354281</v>
       </c>
       <c r="S2">
-        <v>0.05191071108246545</v>
+        <v>0.02099032928903418</v>
       </c>
       <c r="T2">
-        <v>0.05191071108246544</v>
+        <v>0.02099032928903418</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -620,10 +620,10 @@
         <v>2.829335</v>
       </c>
       <c r="O3">
-        <v>0.5189484550226392</v>
+        <v>0.5358731102718634</v>
       </c>
       <c r="P3">
-        <v>0.5189484550226391</v>
+        <v>0.5358731102718634</v>
       </c>
       <c r="Q3">
         <v>0.12632980775</v>
@@ -632,10 +632,10 @@
         <v>1.13696826975</v>
       </c>
       <c r="S3">
-        <v>0.5189484550226392</v>
+        <v>0.5358731102718634</v>
       </c>
       <c r="T3">
-        <v>0.5189484550226391</v>
+        <v>0.5358731102718634</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -682,10 +682,10 @@
         <v>2.339699</v>
       </c>
       <c r="O4">
-        <v>0.4291408338948954</v>
+        <v>0.4431365604391025</v>
       </c>
       <c r="P4">
-        <v>0.4291408338948954</v>
+        <v>0.4431365604391026</v>
       </c>
       <c r="Q4">
         <v>0.10446756035</v>
@@ -694,10 +694,10 @@
         <v>0.9402080431500001</v>
       </c>
       <c r="S4">
-        <v>0.4291408338948954</v>
+        <v>0.4431365604391025</v>
       </c>
       <c r="T4">
-        <v>0.4291408338948954</v>
+        <v>0.4431365604391026</v>
       </c>
     </row>
   </sheetData>
